--- a/问卷模板 - 1.xlsx
+++ b/问卷模板 - 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13505733-D8B1-41E0-B066-73E59DD44B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C875222-BFCD-4E9F-85E9-C5AAEE32FB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,6 +213,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>776185</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8FF254-B23C-5ABB-033C-BC97D8250442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="14028" b="24973"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="3362325"/>
+          <a:ext cx="2614510" cy="1127711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +542,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,5 +781,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>